--- a/HelaMedical/File/AlcoDataBase.xlsx
+++ b/HelaMedical/File/AlcoDataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\HelaMedical\HelaMedical\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HelaMedical\HelaMedical\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Год на момент постановки </t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +725,9 @@
         <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -774,7 +780,7 @@
       <c r="AW2">
         <v>0</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>61</v>
       </c>
     </row>

--- a/HelaMedical/File/AlcoDataBase.xlsx
+++ b/HelaMedical/File/AlcoDataBase.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -239,6 +239,36 @@
   </si>
   <si>
     <t xml:space="preserve">Год на момент постановки </t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>xdv</t>
+  </si>
+  <si>
+    <t>xcv</t>
+  </si>
+  <si>
+    <t>Гродненская обл</t>
+  </si>
+  <si>
+    <t>Островецкий р-н</t>
+  </si>
+  <si>
+    <t>Незаконченное среднее (Базовое)</t>
+  </si>
+  <si>
+    <t>sdcv</t>
+  </si>
+  <si>
+    <t>dcs</t>
+  </si>
+  <si>
+    <t>sdc</t>
+  </si>
+  <si>
+    <t>vb</t>
   </si>
 </sst>
 </file>
@@ -568,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +810,9 @@
       <c r="AW2">
         <v>0</v>
       </c>
+      <c r="AX2">
+        <v>2009</v>
+      </c>
       <c r="AY2" t="s">
         <v>61</v>
       </c>
@@ -842,7 +875,172 @@
       <c r="AW3">
         <v>0</v>
       </c>
+      <c r="AX3">
+        <v>2010</v>
+      </c>
       <c r="AY3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2009</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>2011</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>2011</v>
+      </c>
+      <c r="AY6" t="s">
         <v>69</v>
       </c>
     </row>
